--- a/data-raw/HMS Landings Data - Jennifer Cudney - NOAA Federal.xlsx
+++ b/data-raw/HMS Landings Data - Jennifer Cudney - NOAA Federal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SF\SF1\EBFM\NEFSC State of the Ecosystem\2021\Data Contributions\FUS-Landings Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SF\SF1\EBFM\NEFSC State of the Ecosystem\2023 Report\FUS Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="65">
   <si>
     <t>YEAR</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>Var</t>
+  </si>
+  <si>
+    <t>BAYS (Bigeye, Albacore, Yellowfin, Skipjack) tunas</t>
+  </si>
+  <si>
+    <t>CONFIDENTIAL</t>
   </si>
 </sst>
 </file>
@@ -286,7 +292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -308,6 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -592,11 +599,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="J153" sqref="J153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3269,12 +3276,492 @@
         <v>247698.82999999996</v>
       </c>
     </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E134" t="s">
+        <v>57</v>
+      </c>
+      <c r="F134" s="15">
+        <v>1003.871698494058</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2021</v>
+      </c>
+      <c r="B135" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>59</v>
+      </c>
+      <c r="E135" t="s">
+        <v>24</v>
+      </c>
+      <c r="F135" s="15">
+        <v>10640191.20135</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E136" t="s">
+        <v>57</v>
+      </c>
+      <c r="F136" s="15">
+        <v>205.60870452689829</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>2021</v>
+      </c>
+      <c r="B137" t="s">
+        <v>23</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" t="s">
+        <v>59</v>
+      </c>
+      <c r="E137" t="s">
+        <v>24</v>
+      </c>
+      <c r="F137" s="15">
+        <v>2275558.64</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C138" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E138" t="s">
+        <v>57</v>
+      </c>
+      <c r="F138" s="15">
+        <v>91.611310441803511</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>2021</v>
+      </c>
+      <c r="B139" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" t="s">
+        <v>59</v>
+      </c>
+      <c r="E139" t="s">
+        <v>24</v>
+      </c>
+      <c r="F139" s="15">
+        <v>808995.12160000019</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C140" t="s">
+        <v>19</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E140" t="s">
+        <v>57</v>
+      </c>
+      <c r="F140" s="15">
+        <v>49.280513471831625</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>2021</v>
+      </c>
+      <c r="B141" t="s">
+        <v>23</v>
+      </c>
+      <c r="C141" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141" t="s">
+        <v>59</v>
+      </c>
+      <c r="E141" t="s">
+        <v>24</v>
+      </c>
+      <c r="F141" s="15">
+        <v>220935.19</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C142" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E142" t="s">
+        <v>57</v>
+      </c>
+      <c r="F142" s="15">
+        <v>98.88297877165914</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>2021</v>
+      </c>
+      <c r="B143" t="s">
+        <v>23</v>
+      </c>
+      <c r="C143" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" t="s">
+        <v>59</v>
+      </c>
+      <c r="E143" t="s">
+        <v>24</v>
+      </c>
+      <c r="F143" s="15">
+        <v>18965.53</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144" t="s">
+        <v>21</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E144" t="s">
+        <v>57</v>
+      </c>
+      <c r="F144" s="15">
+        <v>525.07285668148415</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>2021</v>
+      </c>
+      <c r="B145" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" t="s">
+        <v>21</v>
+      </c>
+      <c r="D145" t="s">
+        <v>59</v>
+      </c>
+      <c r="E145" t="s">
+        <v>24</v>
+      </c>
+      <c r="F145" s="15">
+        <v>103363.32000000009</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C146" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E146" t="s">
+        <v>57</v>
+      </c>
+      <c r="F146" s="15">
+        <v>283.14823913181556</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>2021</v>
+      </c>
+      <c r="B147" t="s">
+        <v>23</v>
+      </c>
+      <c r="C147" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" t="s">
+        <v>59</v>
+      </c>
+      <c r="E147" t="s">
+        <v>24</v>
+      </c>
+      <c r="F147" s="15">
+        <v>2570276.0090000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E148" t="s">
+        <v>57</v>
+      </c>
+      <c r="F148" s="15">
+        <v>137.30114873446431</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>2021</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>59</v>
+      </c>
+      <c r="E149" t="s">
+        <v>24</v>
+      </c>
+      <c r="F149" s="15">
+        <v>1432198.2475000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E150" t="s">
+        <v>57</v>
+      </c>
+      <c r="F150" s="15">
+        <v>765.36653474553214</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2021</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151" t="s">
+        <v>59</v>
+      </c>
+      <c r="E151" t="s">
+        <v>24</v>
+      </c>
+      <c r="F151" s="15">
+        <v>9345883.6400000006</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C152" t="s">
+        <v>19</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E152" t="s">
+        <v>57</v>
+      </c>
+      <c r="F152" s="15">
+        <v>1.4182527442619979</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>2021</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C153" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" t="s">
+        <v>59</v>
+      </c>
+      <c r="E153" t="s">
+        <v>24</v>
+      </c>
+      <c r="F153" s="15">
+        <v>4338.7199999999993</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C154" t="s">
+        <v>21</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E154" t="s">
+        <v>57</v>
+      </c>
+      <c r="F154" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>2021</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C155" t="s">
+        <v>21</v>
+      </c>
+      <c r="D155" t="s">
+        <v>59</v>
+      </c>
+      <c r="E155" t="s">
+        <v>24</v>
+      </c>
+      <c r="F155" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="7">
+        <v>2021</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C156" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E156" t="s">
+        <v>57</v>
+      </c>
+      <c r="F156" s="15">
+        <v>16.097143245940309</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>2021</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C157" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" t="s">
+        <v>59</v>
+      </c>
+      <c r="E157" t="s">
+        <v>24</v>
+      </c>
+      <c r="F157" s="15">
+        <v>147957.07</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:F133">
-    <sortCondition ref="A2:A133"/>
-    <sortCondition ref="B2:B133"/>
-    <sortCondition ref="C2:C133"/>
-    <sortCondition ref="D2:D133"/>
+  <sortState ref="A2:F157">
+    <sortCondition ref="A2:A157"/>
+    <sortCondition ref="B2:B157"/>
+    <sortCondition ref="C2:C157"/>
+    <sortCondition ref="D2:D157"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
